--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.83</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.83</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>008524</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>华泰柏瑞锦瑞债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008524</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券A</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>20.09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1661,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008524</t>
+          <t>002669</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券A</t>
+          <t>华商万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>82.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0093</t>
+          <t>0.3706</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>86.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.3442</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +753,416 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008525</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券C</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>88.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.1614</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +1176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +1197,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,32 +1227,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008997</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合A</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>16.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>79.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0730</t>
+          <t>0.6103</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -885,36 +1265,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008998</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰竞争优势混合C</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0527</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +1727,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1187,32 +1757,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009837</t>
+          <t>008997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐锐一年定期开放混合A</t>
+          <t>同泰竞争优势混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.45</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.44</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6103</t>
+          <t>0.0730</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1225,226 +1795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>008998</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>同泰竞争优势混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009838</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏磐锐一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>014331</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证稀土产业ETF联接A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014332</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证稀土产业ETF联接C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国都创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +1859,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1509,36 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009837</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐锐一年定期开放混合A</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7744</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1547,36 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002669</t>
+          <t>008524</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商万众创新灵活配置混合</t>
+          <t>华泰柏瑞锦瑞债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.20</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3706</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1585,36 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3442</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1623,416 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>008525</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>华泰柏瑞锦瑞债券C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.34</t>
+          <t>20.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1614</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012491</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商核心引力混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1267</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009838</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏磐锐一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011370</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012492</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商核心引力混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.59</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2046,128 +2046,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.95</v>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1170,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,7 +1925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1832,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2040,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
+++ b/数据整理/stocks/A股/上证主板/600259-广晟有色.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015443</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015444</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2057,7 +2432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
